--- a/500all/speech_level/speeches_CHRG-114hhrg97598.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97598.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="398">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412270</t>
   </si>
   <si>
-    <t>Jason Chaffetz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Chaffetz. Good morning. The Committee on Oversight and Government Reform will come to order. And without objection, the chair is authorized to declare a recess at any time.    We have a very important hearing today. Appreciate you joining us. The title of this hearing, ``Violence on the Border: Keeping the U.S. Personnel Safe.''    The United States is Mexico's largest trading partner and largest foreign investor. Mexico is the United States' third largest trading partner after Canada and China and is this country's second largest foreign supplier of petroleum.    We have a lot of familial ties. We have people who have loved ones there. It's a great place to travel. It's one of the more beautiful places on the planet, a lot of recreation. A lot of reasons, good reasons to interact with the good people of Mexico and to enjoy one of the most amazing countries that is on the border of the United States of America. It is one of the busiest and most economically important borders in the world, with nearly 1 million legitimate travelers and nearly $1 billion worth of goods legally crossing the border each day.    But Mexico is also a dangerous place. I would argue it's one of the most dangerous places on the planet. To understand how dangerous it is, we don't have to look further than the State Department's own warnings about travel to Mexico. Specifically, the State Department warns, ``Gun battles between rival criminal organizations or with Mexican authorities have occurred in broad daylight on streets. Criminal organizations have created road blocks to prevent the military and police from responding to criminal activity. Carjacking and highway robbery are serious problems in many parts of the border region, and U.S. citizens have been murdered in such incidents.''    According to the United States Department of State's Bureau of Diplomatic Security, Nuevo Laredo's municipal police was suspended in July of 2011, ``among allegations of large-scale corruption.'' Benjamin Galvan Gomez, who had been the mayor of Nuevo Laredo until 2013, disappeared on the night of February 27, 2014, near his house, along with businessman Miguel Angel Ortiz.    Prosecutors say that Galvan was kidnapped in Nuevo Laredo, killed and dumped near Monterrey about 135 miles south to the state of Nuevo Leon. Their bodies were found in the trunk of a car on March 1, 2014, according to press reports. In June of 2012, a bomb exploded in Galvan's parking spot at City Hall, killing one bystander and injuring others.    The month before, cartel members left the decapitated bodies of 14 people in a van in front of City Hall accompanied by the banner that claimed to be from Joaquin El Chapo Guzman, leader of the Sinaloa cartel. The banner threatened Galvan and accused him of working with the Zetas.    In February 2013, the police chief of Nuevo Laredo disappeared, and his two brothers were found dead in the trunk of a car in Nuevo Laredo. Just yesterday--I happen to be a member of the Church of Jesus Christ of Latter Day Saints, and further to the south there's an article out about an LDS Mission President. Somebody from the United States, actually from my district, going down and serving a religious mission who was shot during a robbery in Mexico. It is a violent place, a dangerous place.    The lawlessness is a direct result of drug cartels operating in Mexico evolving into massive criminal organizations. These cartels have expanded their operations into kidnapping, extortion, and murder. Unfortunately, this is not new news. It has been going on for some time. According to the National Border Patrol Councils--we'll hear testimony today--``The official death toll from cartel violence in Mexico is 60,000. However, the unofficial death toll in Mexico is over 120,000 killed and another 27,000 missing or presumed dead.''    Mexico ranked 103rd out of 175 countries in Transparency International's Corruption Perceptions Index, which ranks countries and terrorists based on how corrupt their public sector is perceived to be. It's in company of Algeria, China, Bolivia, Moldova, and Niger. According to the Institute for Economics and Peace ranking of countries from least to most violent, Mexico was 144 out of 162 countries surveyed, being similar to Lebanon and Colombia and others in terms of violence in 2015.    Today, the Department still operates nine consulates in an embassy in Mexico City. Two of those consulates, just south of the United States border, are of particular interest in today's hearing. Matamoros and Nuevo Laredo, where I've been able to visit the Nuevo Laredo facility, both consulates operate directly across the Rio Grande River from the United States despite the State Department's warning, ``Violent criminal activity occurs more frequently along the northern border.''    In attempt to approve safety of our personnel in those consulates, the Department is set to build new consulate compounds in both Matamoros and Nuevo Laredo. Despite these plans, construction has been long delayed. Both of these facilities are being constructed under the Department's design excellence initiative.    Design excellence takes longer than the standard embassy design, which has been used successfully by State in previous years. Several independent studies have gone and shown that they build them faster and less expensive. Unfortunately, the State Department, under President Obama and Secretary Clinton, changed the way we do this. They're now more expensive, they're slower, and consequently, we keep more people in danger for long periods of time.    Given State's own warnings about the danger Mexico poses to U.S. citizens and officials, it seems that building these facilities should be a priority; yet, it has been a fiasco over the last few years. Construction will not be completed until November 2017 in Nuevo Laredo and until spring of 2019 in Matamoros.    We had a chance, Stacey Plaskett and I, had a chance to visit the embassy in Mexico City. State Department entered into a contract in Mexico City to purchase from Colgate-Palmolive a $120 million piece of land to build a new embassy. We have paid roughly half of that, $60 million to Colgate-Palmolive. But the transfer does not complete until Colgate-Palmolive cleans up the site of all contaminants as approved by the Mexican environmental authorities.    But the place that they decided to buy--and we have documentation of this--was a brownfield. It was dirty. It was toxic. It was not ready to be built on. They thought they could clean it up, but it continues to be so dirty today that the Mexican Government will not approve it because it's too toxic.    So we have an older facility that's not adequately fortified. We have massive growth--massive growth in the number of personnel that they want to go into this embassy, and the construction costs have jumped 38 percent to $763 million. In fact, if you look at the total costs, including the site acquisition, design and construction, we're looking at $943 million to build this embassy that is now years behind.    Part of the reason that increase that's happening there is the number of desks. The number of desks projected at the beginning was going to be 891; now it's 1,335. Why the increased number of desks? In large part because of the security problems in Mexico. Yes, we do increase the amount of trade, but we need more security personnel to do the assessments from all the various agencies. This puts the total at roughly $706,000 per desk.    Now, the original embassy in Mexico City was scheduled to be completed in February of 2019, but we're looking at least middle of 2020, if not further. It has still--still to this day not been approved by the Mexican Government. The money has been paid, but we're not able to move into that new facility. And it's totally unacceptable.    The State Department also recently indicated it plans to take away danger pay allocations for U.S. personnel who have been receiving it in Mexico. Danger pay is additional money provided to State Department employees who are willing to work in a particularly dangerous area. It defies logic for the State Department to warn Americans about the high risk of danger--high risk in danger and traveling in Mexico but to end danger pay for diplomats here.    Behind the scenes, the State Department says, ``Oh, don't worry about it. Don't worry about it. They'll be taken care of.'' Having traveled to Mexico a couple of times now and talking to State Department personnel, it's right at the top of their plate. Right at the top of their issue. Don't take away our danger pay.    You have people who work in the consulate in Nuevo Laredo directly across the border who have literally just a couple of square miles of which they can move. I've talked to the State Department personnel who cannot freely go out and shop or go to a movie or do anything other than stay on that compound because of the extreme violence and danger, and yet the State Department wants to take away that danger pay.    We have people who are shaking their heads saying, ``Oh, that is silly. That's ridiculous.'' But you know what? How ironic that the House Republicans are fighting to help keep the danger pay for the State Department employees. And they want to change that in Mexico. And that doesn't make sense to us. We're going to explore that.    Crime in northern Mexico has already impacted U.S. assets in the country. On June 7, a truck leaving the United States consulate in Matamoros was hijacked by armed robbers. The hijackers stole more than 11,500 U.S. border crossing cards, which are visas that can be used to enter the United States. Some of these were recovered, but nearly 2,000 of these cards and a dozen passport cards are still missing.    The hijacking of this truck should come as no surprise to the State Department. The Department's own travel warning makes it clear that, ``No highway route through Tamaulipas,'' which is the state, which includes Matamoros and Nuevo Laredo, ``are considered safe.''    American assets in the sky are also at risk. In June, members of the Zeta cartel were shot at at a Customs and Border Patrol helicopter, hitting it twice and forcing it to land near Laredo, Texas. I've seen that helicopter. I talked to the pilot. I talked to the other gentleman who was on that helicopter. They were on the United States side of the border but taking fire from the Mexican side of the border, a pretty brazen attack on a U.S. helicopter doing patrol on the United States side of the border.    Previous to that there were attacks on Mexican helicopters from drug cartel members. It actually took down a helicopter in another part of Mexico. While no one was injured, this attack made it clear that cartels have no reservations about expanding the scope of their violence on the American side of the border. Danger and violence in Mexico is apparently not much of a priority for this administration.    Secretary Kerry, I understand he's got a busy job. But here we have one of the most important partners; the most important relationships that we have in the world is with Mexico. And in the 29 months since Secretary Kerry has been the Secretary of State, how many times has he visited Mexico? One time. It's not a priority for this administration.    Instead, they're taking away danger pay. They're trying to make the case that, ``Oh, it's all safe. Everything's good here.'' And yet, I've got an LDS Mission president who was shot yesterday. I've got border patrol agents that are being shot out of the sky. I've got people who know that there are violent--by the tens of thousands of people being killed on that side of the border.    And we, as the United States of America, need to do better. We have to do better. They're our next door neighbors. There's over 100 million people there. That demands a little bit more attention from the Secretary than one quick visit down there. It makes me wonder whether they want Americans to think things are fine and safe for America, and it's hard to understand why so little diplomatic effort had been there.    We have a lot to discuss today. Very frustrated with the State Department and the requests made on July 15. We had sent a letter. It barely goes on to the second page. We had four asks. And on Friday, before this hearing, going into Labor Day weekend, State Department dumped on our desk 110,000 documents. Couldn't do a rolling production. Couldn't allow their staff to pour through this.    But this is how the State Department acts with the Oversight and Government Reform Committee. So we'll digest that. But to dump 110,000 documents, honest. Friday, right before Labor Day, we're coming into this hearing. You all knew that we had this. Come on. Really? You expect that to go unnoticed? Unacceptable. Unacceptable.    My question for the panel today, do we have all the documents? I want you to certify and tell me that I have everything I asked for. And that will be one of my first questions.    Yield to now the gentleman from--our ranking member, Mr. Cummings, from Maryland, for his opening statement.</t>
   </si>
   <si>
     <t>400090</t>
   </si>
   <si>
-    <t>Elijah E. Cummings</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cummings. Thank you very much, Mr. Chairman. I want to thank you for holding this hearing today. And as I listen to you, I'm hoping that our witnesses listen very carefully. I think you raised some legitimate concerns and I'm hoping that they will address them.    I also want to thank Congressman Vela, the ranking member of the Subcommittee on Border and Maritime Security, for being a leader on this issue and for promoting aggressive action to protect the United States and our diplomatic corps overseas.    Drug cartel violence in Mexico threatens American and Mexican citizens and their families on both sides--on both sides of the border. It also negatively impacts our important bilateral trade relationship with Mexico. Combatting the violence and stabilizing this region needs to be a top priority for both countries.    Congressman Vela's position is that the consulates should remain open to support American citizens and economic interests on both sides of the border. And I agree with him, and I find his argument quite persuasive.    Closing U.S. consulates in Mexico will simply destabilize the region making our borders less safe. Consulates in Mexico play a critical role in implementing Laredo initiative, which is our Nation's $2.5 billion investment in disrupting organized groups, institutionalizing the rule of law, and building stronger communities.    Many of our U.S. consulates also house our Federal law enforcement efforts to combat the drug trade and strengthen border security. In addition, many U.S. companies, including DuPont, Tyco, and General Electric, have significant business interests in Mexico. These other businesses provide 65,000 jobs in Matamoros, our consular district alone, and they depend on the support provided by U.S. consulates. U.S. consulates also provide crucial services to U.S. citizens residing in and visiting Mexico.    Our diplomatic relationship with Mexico is a critical tool for stabilizing the region. We need to strengthen this diplomatic relationship, especially in regions that need it most, not damage it by closing these consulates, as some have suggested. I believe Mexico should do more to enhance security in the region. But the U.S. also has a role to play, such as stemming the flow of guns.    Congressman Vela has suggested establishing secure economic zones in northern Mexico similar to those that have already been implemented in southern Mexico. These zones would include a joint economic plan that would provide more opportunities for communities on both sides of the border. These ideas deserve serious consideration.    We must ensure that Mexico is doing everything it can to root out the corruption that plagues law enforcement and civil institutions in order to effectively combat drug cartels. Greater stability will encourage more economic investment.    On our side of the border the United States must do more to stem the flow of guns into Mexico. In March, the Bureau of Alcohol, Tobacco, and Firearms reported that more than 100,000--more than 100,000 guns were recovered in Mexico and submitted for tracing from 2009 to 2014. Of those 100,000 guns, 70 percent of them originated in the United States. Guns that are entering Mexico are being trafficked in from the United States.    This is one reason I'm proud to cosponsor with my good friend, Congresswoman Maloney, the Gun Trafficking Prevention Act, which is being reintroduced today on a bipartisan basis by our colleague, Mrs. Maloney. If we can stem illegal gun trafficking in the United States, there's no doubt the positive effects will be seen by our neighbors to the south.    Finally, let me say this: The United States must take all appropriate steps to ensure that our diplomats are safe and fully and fairly compensated. I agree with you, Mr. Chairman, that that must happen. This includes building modern, secure, diplomatic facilities. Construction plans are underway in Mexico, Matamoros, and Nuevo Laredo to build new diplomatic facilities that will house Marine barracks to ensure even greater protection of our personnel.    I understand that the State Department is changing how it pays employees serving in dangerous and difficult environments. I appreciate the Department's efforts to use resources effectively and consistent with the law. But I believe no employees who serve on the front lines abroad should face reductions in pay.    I look forward to hearing from our witnesses about how to further improve the safety of U.S. personnel while promoting our longstanding and mutually-beneficial relationship with Mexico.    And with that, Mr. Chairman, I yield back.</t>
   </si>
   <si>
@@ -79,9 +73,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Starr</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Starr. Chairman Chaffetz, Ranking Member Cummings, and distinguished committee members, good morning. And thank you for your invitation to appear today to discuss the security situation near U.S. consulates at the border in Mexico. We share your concerns regarding the security of the U.S. personnel in Mexico, and I look forward to discussing these issues with you today.    Our national interests often require us to serve in dangerous places around the world. However, it is clear that the U.S. Embassy and consulates in Mexico are exceptionally important platforms for diplomatic and consular engagement to advance our national interests.    I was in Mexico a few weeks ago and can bear witness to the hard work and dedication of the U.S. personnel serving on both sides of the border. I also saw the challenging circumstances in which many of our people operate. Environments such as Mexico involve constantly shifting threats that require comprehensive planning, agile decisionmaking, and deft diplomacy. Most of all, they require us to be present, fully engaged, and 100 percent committed to the security of our people and our facilities.    In Mexico, we engage with and seek support where necessary from a host government that recognizes Mexican and American vital interests are linked and that bilateral cooperation is required to counter the threats posed by transnational criminals. In every incident, threat, and attack in Mexico, this only underscores the continued importance of the strong bilateral relations and the comprehensive security cooperation.    Our embassy and consulates in Mexico play a critical role in providing services to American citizens, issuing visas, and implementing key foreign policy objectives. I work closely with my colleagues in the Bureau of Overseas Buildings Operations as the Department builds diplomatic missions in Mexico to increase safety and security. These new facilities are vital platforms for diplomacy, all of which will meet the rigorous Overseas Security Policy Board standards for safety and security.    During my recent visit to some of the border consulates, I walked with the principal officers and regional security officers to view the additional security measures taken and augmented host country security presence protecting our facilities. These protective features allow us to operate necessary programs that strengthen Mexico police capacity, reinforce critical law enforcement cooperation, and improve security along our southern border.    These consulates also aid the expansive bilateral trade that supports both countries totaling over $500 billion annually. But it is simply not enough to improve physical security. We are also training the Foreign Service community on how to better respond in these environments.    All officers under chief of mission authority at our border post in Monterrey are required to take the Foreign Affairs Counter Threat training course, also known as FACT, which teaches them hard security skills. As a result, personnel in our missions are better prepared for operating in challenging environments, and we are working towards making FACT training universal for all Foreign Service personnel at our posts overseas regardless of the threat levels.    I recognize the hardships that our people and their families endure in such environments. It is a testament to their courage, their commitment, and the important work that they are accomplishing abroad. Having served over 30 years in the Foreign Service, I understand wholeheartedly the sacrifices our people make. It is simply woven into the fabric of what uniquely defines the Foreign Service community. Knowing the challenges ahead, they willingly and courageously step up to fill the important positions that we have in Mexico and throughout the world.    I look forward to working with Congress to ensure our personnel are serving abroad safely and that they continue to have safe platforms for advancing our national interests. And I want to thank Congress for the resources and support that you have provided over the years, and we look forward to your continuing support in years ahead.    Thank you. And I'll be glad to answer any questions that you have.</t>
   </si>
   <si>
@@ -91,36 +82,24 @@
     <t xml:space="preserve">    Chairman Chaffetz. Ambassador Moser, you're now recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Moser</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Moser. Good morning, Chairman Chaffetz, Ranking Member Cummings, and members of the committee. And thank you very much for the invitation to appear before the committee today to discuss the U.S. consulates in northern Mexico.    Security is a top priority for the Bureau of Overseas Building Operations. Since the enactment of the Secure Embassy Construction and Counterterrorism Act, SECCA, of 1999, OBO has completed 122 more secure facilities and have an additional 39 in design or under construction. These facilities provide more than 35,000 people with a safer workplace.    Constructing secure diplomatic facilities in Mexico underscores our commitment to strengthening our bilateral relationship and reflects increased U.S.-Mexican commitments to issues such as migration, counter-narcotics, trade, and border security.    Over the last 7 years, OBO has constructed new Consulate General facilities in Mexico in Ciudad Juarez, Tijuana, and most recently in Monterrey. Together, these facilities provide safer work space for over 770 staff.    Our work continues in northern Mexico with the new U.S. Consulate General in Nuevo Laredo under construction and expected to be completed in 2017. This new consulate will provide workspace for approximately 150 staff. Another U.S. Consulate General in Matamoros is in design and expected to be awarded for construction this fall and completed in 2019. This new Consulate General is planned to accommodate approximately 197 staff.    We have an active and aggressive site search underway in Mexico to meet our commitments. We are under contract for new Consulate General sites in Nogales, Guadalajara, Hermosillo, and anticipate closing on these sites in 2015 and 2016. We are also in the process of evaluating sites in Merida to replace the existing facilities.    Additionally, a new U.S. Embassy in Mexico City is currently in design and includes office space for over 1,300 staff members, a U.S. Marine security guard residence, and a consular area with over 75 teller windows.    OBO works closely with Diplomatic Security every step of the way on all of our projects. OBO and Diplomatic Security physical, technical, and industrial security specialists are involved in project development from early site selection, planning, design, construction, and through occupancy. All U.S. diplomatic facilities built by OBO meet the Department's standards for security and life safety.    By 2020, we expect to have constructed or broken ground on over nine new diplomatic facilities in Mexico that will serve as secure platforms from which to conduct diplomacy and to fulfill foreign policy objectives for many years to come.    And I'm happy to answer your questions at any time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Chaffetz. Ms. Saarnio, you are now recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Saarnio</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Saarnio. Chairman Chaffetz, Ranking Member Cummings, distinguished members of the committee, thank you for the opportunity to testify before you today.    As the Deputy Assistant Secretary of State responsible for our Mexico portfolio in the Western Hemisphere Bureau, I want to assure you, as my colleagues have, that the safety and security of our colleagues in Mexico are our top priority.    I started my diplomatic career in Mexico City, and I would be proud to serve in Mexico again. I'd like to share with you today the work that the State Department performs to assist American citizens in Mexico's border region. I will highlight the measures we're taking to enhance security in Mexico through strong, bilateral cooperation, while ensuring the safety of U.S. personnel, particularly of those serving in the U.S. consulates along the U.S.-Mexico border.    The State Department closely examines all threats to our diplomats, locally-employed colleagues, and U.S. facilities. The Department assesses daily the risks the U.S. personnel face as they do their jobs in a constantly-shifting landscape. We seek a balance between the critically-important work our people do, including the consular services provided to American citizens in Mexico, and the inherent risk of working in a challenging security environment.    At every step, we work to ensure the security and safety of all American citizens, but particularly our diplomatic colleagues in Mexico. We remain vigilant and we analyze carefully new potential threats.    Our embassy and our consulate personnel meet frequently with Mexican Federal, state, and local counterparts to discuss these concerns and to assure that all appropriate measures are being taken to protect our personnel and U.S. citizens of business.    We have systems in place that allow us to communicate rapidly and effectively with U.S. citizens when the security situation changes. Our travel warning, country-specific information, and security messages provide U.S. citizens with our best assessment of the risks they may face when traveling to certain regions in Mexico.    The United States and Mexico share a mutual investment in security and prosperity. The State Department, along with key U.S. Government agencies, such as the Justice Department, the Department of Homeland Security, the Department of Defense, and others work with the Mexican Government through the Merida Initiative to combat transnational criminal organizations and to protect our citizens from the crime and violence these organizations generate.    Because of our robust and ongoing dialogue with Mexico on security issues, Mexican Federal authorities have taken action to improve security conditions and reduce violence, particularly in the state of Tamaulipas, where the United States Government is represented at the border consulates of Nuevo Laredo and Matamoros.    The bilateral economic relationship between our two countries is huge. Indeed, the two-way trade topped $550 billion in 2014. Eighty percent of that trade crossed the U.S.-Mexico land border. Our integrated economic relationship supports thousands of jobs in both countries and hundreds of thousands of people legally cross our border each day. Mexico remains the top foreign destination for travelers from the United States. In fact, we estimate that on any given day there are 1.5 million American citizens in Mexico.    Our U.S. Consulate General in Nuevo Laredo, and Matamoros in particular, support this vibrant relationship through visa services for tourists, students, and workers. They provide critical services to the some 138,000 U.S. citizens living in their consular districts, and to thousands of U.S. visitors and the commercial travelers.    These services include passport issuances and renewals, issuances of consular reports of birth abroad, providing information on voter registration, and offering notary services for documents to be used in the United States. The consulates also provide emergency services to American citizens who are arrested, kidnapped, or face temporary destitution in Mexico.    We share the committee's concern about the levels of violence in certain areas in Mexico, and we assess the overall environment on a daily basis. We believe that U.S. interests are best protected by maintaining a strong presence on the ground in Mexico and continuing our close law enforcement and security relationship. We review and monitor the situation daily and have been taking all appropriate steps to ensure the safety of American citizens, including government personnel.    I want to assure you, this is and will continue to be a top priority for me, my leadership, and the Department.    Thank you for the opportunity to testify.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Chaffetz. Mr. Harris, you're now recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Harris</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Harris. Chairman Chaffetz, Ranking Member Cummings, and distinguished members of the committee, I appreciate the opportunity to appear before you today to speak about the Department of Homeland Security's Southern Border and Approaches Campaign's Joint Task Force-West, which represents the next evolution of border security on our Nation's southern border.    I assumed the position of director of the newly-created pilot joint task force on December 15, 2014. Prior to this position, I was the first then-commander of Customs and Border Protection's South Texas campaign where I served from February 2012 to December 2014 in Laredo, Texas.    I've held numerous executive leadership positions in my more than 30-year Border Patrol career, to include serving as chief patrol agent of the Laredo, Texas, and Spokane, Washington, Border Patrol sectors; chief of intelligence operations and as the deputy chief of the U.S. Border Patrol where I led and managed the transition of the U.S. Border Patrol into the then newly-created U.S. Customs and Border Protection in 2003.    I want to take a moment to speak to you about the Southern Border and Approaches Campaign and the Joint Task Force-West. This campaign directs DHS resources in a collaborative fashion with pre-identified, component-validated, Secretary-approved targets, spanning a range of threats and challenges, including the terrorist threat, illegal immigration, drug, human, and arms trafficking, and the illicit financing of all of these operations.    I'm working hand in hand with my counterparts, Vice Admiral William Dean Lee from the U.S. Coast Guard, director of Joint Task Force-East; and Special Agent in Charge David Marwell, HSI special agent in charge director of joint task force investigations.    Although we are in our early stages, we are working to coordinate DHS forces and leverage Department of Defense international, State, local, and tribal resources to combat the transnational criminal organizations who exploit vulnerabilities in our southern border and approaches. This level of integration among DHS component agencies is unprecedented since the creation of the department in 2003.    The Joint Task Force-West will secure the southern border and its approaches through departmental unity of effort, thereby integrating and prioritizing DHS security operations. Our five primary objectives in Joint Task Force-West are, integrate and align our intelligence capabilities; institutionalize integrated counternetwork operations to identify and target transnational criminal organizations and their illicit networks; prioritize investigative efforts to disrupt, degrade, and dismantle transnational criminal organizations and illicit networks; strengthen international prosecutorial and deterrent efforts against transnational criminal organizations enterprises and significant activity impacting the Joint Task Force-West joint operating area; and finally, advance the Joint Task Force-West mission through unified communication and messaging efforts.    The structure of the Joint Task Force-West focuses cross-departmental and integrated counternetwork operations on strategic objectives across four geographic corridors: California, Arizona, New Mexico, West Texas, and South Texas. The Joint Task Force-West will focus on creating and implementing a standardized methodology for identifying and prioritizing strategic targets based on national security, public safety, and border security threats.    We have begun the threat prioritization process by developing a concept of operations plan and courses of action for each corridor. The goal will be to expedite integrated counternetwork operations against a list of prioritized transnational criminal organizations across the southwest border on October 1, 2015. This has never before been done in a coordinated and integrated means across the entire southwest border.    These corridor operations will expand our ability to impact illicit networks beyond the border from their point of origin to destination point through integrated DHS and interagency cooperation. These joint efforts will result in consequence application to identified targets through investigation, enforcement, and administrative actions. The joint task force framework also enables DHS to streamline our collaboration, innovation, and integration with other government entities.    For example, in the South Texas corridor, we have taken steps to move past collaboration and into the integration of intelligence, investigation, and interdiction resources, and have conducted counternetwork operations against prioritized threats. This new partnership further reduces institutional barriers and duplication of effort, provides for a unity of effort understanding the threat network, and enhances our ability to dismantle these networks.    I am confident that moving forward the Southern Border and Approaches Campaign will effectively disrupt, degrade, and dismantle threats in a strategic and coordinated manner like never before and improve our ability to combat criminal organizations who present a threat to our efforts to secure the southern border.    I look forward to answering any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Chaffetz. Mr. Judd, you're now recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Judd</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Judd. Thank you, Chairman Chaffetz, Ranking Member Cummings.    In June, a CBP helicopter was shot and forced down in Laredo, Texas. To many in Washington, this was a wakeup call to the increasing violence on the Mexican border. Unfortunately, this was far from an isolated incident.    For example, in 2014, less than 100 miles from the helicopter shooting, Border Patrol Agent Javier Vega was murdered defending his family from two armed illegal immigrants while on a fishing trip. One of the murderers had been deported four times, the other twice for illegally crossing the border.    Twenty years ago, and about the time I joined the Border Patrol, the Zeta, Sinaloa, Gulf, and Knights Templar cartels did not exist or were not widely known. Although narcotics and illegal immigrant smuggling were conducted by organized crime, it was not nearly on the level we see the cartels operating today. There were even relatively small-time players conducting smuggling operations within a given area of operations.    Although violence could and did erupt, the older generation of smugglers took the long view. They would rather risk losing a load of narcotics to the Border Patrol than opening fire on agents. Violence brought unwanted attention on both sides of the border, and that was bad for business. This all began to unravel in the early 2000s with the emergence of the drug cartels.    These cartels are well organized, heavily armed, and pathologically violent. To give you a sense of the violence, the official death toll--as you quoted earlier--the official death toll from the cartel violence in Mexico is 60,000. This is more than the United States military lost in Vietnam. However, the unofficial death toll in Mexico is over 120,000 killed and another 27,000 missing and presumed dead.    In Mexico, the cartels kill without hesitation or fear of prosecution. In May of this year, cartel members shot down a Mexican Army helicopter in the state of Jalisco. Why would we expect them to behave any differently on the U.S.-Mexico border?    The second factor driving the increased violence is the rise of criminal aliens. When I first started in the Border Patrol, if you were a citizen of Mexico, we simply took down your information, took a single fingerprint, loaded you on a bus and drove you to the border for repatriation. It was a revolving-door border enforcement policy with cases where agents often arrested the same individual twice in the same shift.    Three positive developments, however, changed this. The first was the change in the way we collected information. Instead of just capturing one fingerprint, we began taking the prints of all ten fingers and running the prints of those arrested against all criminal databases kept in the United States Department of Justice. We were then able to identify with certainty criminal aliens attempting to reenter the United States or to identify those who were arrested during interior patrol activities.    The second positive step was the implementation of the various consequence delivery systems used in certain places along the border, and the third was Immigration and Customs Enforcement's criminal deportation program.    I want to be very clear on this, especially given the recent incendiary comments about who is crossing the border and the assertions that the border is far safer than it has ever been: In 2014 ICE deported 177,000 convicted criminals. Of this number, 91,000 were arrested by the Border Patrol trying to illegally reenter this country.    To put this figure in perspective, in 2014 the Border Patrol apprehended and arrested just under 500,000 illegal immigrants. Meaning that one in every five arrests last year by the Border Patrol was a criminal alien. Almost 50 percent of the criminal aliens supported in 2014 were convicted of aggravated felonies. These charges include murder, rape, sexual assault of a child, and drug and weapons trafficking. These are not petty criminals, and approximately 60 percent of those deported last year had already been deported at least once before.    This is the challenge we are facing at the border today. There are those who will point to lower apprehension rates and tell you the border is secure. Border Patrol agents, however, throughout this nation will tell you the border is not secure and the southwest border certainly is not safe.    We know what the problems are. What can we do to improve? First thing, increase manpower. Currently, there are 21,370 Border Patrol agents in this country. And that's actually what Congress mandates that we have. We're actually about 2,000 less, under that. So we don't even have the floor that Congress has mandated that we maintain. We do not have to double the size of the Border Patrol to gain operational control of the border, but we are, in my opinion, approximately 5,000 agents short of where we should be.    Secondly, supervisory staffing levels. The Border Patrol is an extremely top-heavy organization with far too many layers of management. The average large police department has one supervisor for every ten officers. The Border Patrol has one supervisor for every four agents. The committee should mandate a ten-to-one ratio and achieve it through attrition in the supervisory ranks. This could easily return another 1,500 agents to the field.    Because of time, I'm just going to point out the other points. We need to continue with interior enforcement, we need to improve our training, and we need to prosecute assaults against Border Patrol agents. In this manner, I believe that we will decrease the violence on the border and we will help to maintain border security.    Thank you very much, and I look forward to answering your questions.</t>
   </si>
   <si>
@@ -418,9 +397,6 @@
     <t>400273</t>
   </si>
   <si>
-    <t>John L. Mica</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mica. Thank you, Mr. Chairman, and thank you for holding the hearing.    First of all, before we get to Mr. Judd, has the situation gotten worse? Is the violence just as bad in Mexico as it's been? Mr. Starr, what do you say?</t>
   </si>
   <si>
@@ -520,9 +496,6 @@
     <t>400251</t>
   </si>
   <si>
-    <t>Carolyn B. Maloney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Maloney. Thank you, Mr. Chairman, and all of the panelists and Ranking Member, for calling this truly important hearing.    And Mr. Judd hit it right on the head with his comment that it's not only on the border now. It is coming into the United States. Just this past week a news reporter and her cameraman were shot. A police officer putting gas in his car was shot. A woman from Illinois was shot. The incidents that you mentioned, and as Mr. Starr said, it's going to be a long effort on the border. And as my colleague, Mr. Mica, mentioned, it is out of control.    And I would like to point out that a lot of the shooting is coming from guns that were manufactured and slipped over the border into Mexico. In fact, Mexico has some of the most restrictive gun laws in the entire world, yet it's seen a tremendous surge in gun-related violence.    Just yesterday Chairman Cummings shared with me this letter that was sent to him from Charge de Affairs of Mexico, Alejandro Estivill, and in it he says that the ATF found that over 70 percent of the guns recovered in Mexico in 2014 were sourced from the United States. Now, that is a shocking statistic.    Seventy percent of the guns came from America. And in it he further writes, ``Congress can play a very important role in combatting these transborder criminal organizations and the flow of illegal firearms by enacting proper legislation,'' I ask unanimous permission to put this letter into the record, Mr. Cummings, and Mr. Chaffetz.</t>
   </si>
   <si>
@@ -553,9 +526,6 @@
     <t>412482</t>
   </si>
   <si>
-    <t>Blake Farenthold</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Farenthold. Thank you, Mr. Chairman. Before I get started, Ms. Maloney points out in her call for more gun laws here in the United States, that Mexico has some of the strictest gun laws and yet has the high violence. I think that just goes to make the point that restrictive gun laws actually take guns out of the hands outs of law-abiding citizens and put them into the hands of criminals</t>
   </si>
   <si>
@@ -607,9 +577,6 @@
     <t>400295</t>
   </si>
   <si>
-    <t>Eleanor Holmes Norton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Norton. Thank you very much, Mr. Chairman. This discussion about undocumented criminals, violence of course on the border, raises the question for me of the role that consulates play with respect to security, particularly in northern Mexico.    Now, as I understand it, Mr. Starr, the security agencies, the law enforcement agencies, are coordinated or facilitated through the consulate. I have in mind Customs and Border Protection, Drug Enforcement Agency, Immigration, of course, and Customs Enforcement, Marshal Service, is the consulate the place where these agencies would be stationed?</t>
   </si>
   <si>
@@ -649,9 +616,6 @@
     <t>412622</t>
   </si>
   <si>
-    <t>Earl L. "Buddy" Carter</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Carter. Thank you, Mr. Chairman. Mr. Starr, earlier in your opening remarks, you said environments such as that in Mexico involve constantly shifting threats, require comprehensive planning, agile decisionmaking, in depth diplomacy. You went on to say, but it's simply not enough to improve physical security. We're also training the Foreign Service community on how to better respond in these environments.    Since 2008 the State Department has had a plan to build a Diplomatic Security training center, and included in that has been the curriculum, the infrastructure, and the personnel. But the OMB and the GAO have come out with reports on this. And during those studies, those studies that the OMB and the GAO have come out with, the OMB report has not been released. I have seen the OMB report, and my staff has seen the GAO report. Both of those reports cite the lack of cooperation by the State Department in trying to come up with proposals for this facility to be built.    Can you tell me on a facility that's this important, on a facility that's this expensive, why the State Department would be uncooperative in addressing this? Can you tell me why FLETC, the Federal Law Enforcement Training Center, in Glynco, Georgia, was only given 60 days to respond to this? Don't you think that they deserve more than 60 days? Don't you think the taxpayers of this country deserve to know exactly apples and apples what's going to be the best facility? What are we going to get the most from our taxpayers' dollars there? Would you agree with that?</t>
   </si>
   <si>
@@ -700,9 +664,6 @@
     <t xml:space="preserve">    Chairman Chaffetz. I thank the gentleman. I now recognize the gentleman from Pennsylvania, Mr. Cartwright, for 5 minutes.</t>
   </si>
   <si>
-    <t>Cartwright</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cartwright. Thank you, Mr. Chairman. And I thank all the witnesses for coming today. This is an enormously important discussion we are having.    We heard from you, Mr. Harris, and particularly from you, Mr. Judd, some really vivid testimony about the level of violence that we're seeing connected with the border and the level of criminal that we're seeing at the border; but really Chairman Chaffetz called this hearing in large measure to talk about whether we ought to close those three consulates that he discussed.    And actually my colleague, Mr. Mica, is calling for the closure of all nine consulates in Mexico. What I didn't get from you, Mr. Harris, or you, Mr. Judd, was the nexus between that discussion and the discussion of the level of violence that you've been talking about. How does it cut, starting with you, Mr. Harris, how would closing these three consulates that Chairman Chaffetz is talking about, how would that cut on the violent situation there?</t>
   </si>
   <si>
@@ -730,9 +691,6 @@
     <t>412654</t>
   </si>
   <si>
-    <t>Will Hurd</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hurd. Thank you, Mr. Chairman. I'd like to thank my colleague from Pennsylvania, Mr. Cartwright, in highlighting the problem of insects on the border. It's a real problem and something we deal with all the time. I represent over 820 miles of the border from Eagle Pass, Piedras Negras on the Mexican side, to El Paso, Ciudad Juarez, on the Mexican side, with Beto O'Rourke, Filemon Vela, and Henry Cuellar. We represent all of the Texas border, so this is something that we engage in on a weekly basis. And I don't have much time.    So my first question to you, Mr. Judd--and I'm going to try to keep our little tet-a-tet tight. We spent a lot of time here discussing the violence on the border and the danger of the border and that it's expanding in the interior. I was down the border last week in Ojinaga and Presidio, and I know one of the challenges I heard a lot was the lack of manpower in some of these locations, especially a place like Presidio. Can you tell us a little bit about what that means from an operations perspective, and if you can keep that answer tight.</t>
   </si>
   <si>
@@ -760,9 +718,6 @@
     <t>412595</t>
   </si>
   <si>
-    <t>Robin L. Kelly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Kelly. Thank you, Mr. Chair. Everyone here today would agree that the Mexican Government must work to enhance security in their country. The violent crime that takes place in some places in Mexico, taking into consideration what my colleague just said, often resonates across the border here in the United States and simply cannot be ignored.    We know that American firearms often turn up at crime scenes in Mexico. In March, the ATF reported that out of 104,850 guns traced between 2009 and 2014, 70 percent originated in the United States. Mr. Harris, I'm sure that Customs and Border Patrol encounters many guns at the border. Do you agree that the consistent flow of firearms from the U.S. Across the border to Mexico is a serious problem?</t>
   </si>
   <si>
@@ -784,9 +739,6 @@
     <t>412670</t>
   </si>
   <si>
-    <t>Mark Walker</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walker. Thank you, Mr. Chairman. Appreciate your passion on this issue.    I want to talk a little bit about--go the direction concerning human trafficking and human smuggling, if I could, and I want to tie it into the border crossing cards. I have a question, what are the risks of these thieves that are able to duplicate these cards? Is that possible of the 11,500 that were made? Because I have a card here as well, and it's a card that I use here in D.C. Sometimes I'll use it to vote. Other times I just show it and I'm kind of granted access here. So help me understand. Can that be duplicated?</t>
   </si>
   <si>
@@ -856,9 +808,6 @@
     <t>412659</t>
   </si>
   <si>
-    <t>Stacey E. Plaskett</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Plaskett. Very generous, I like that. Thank you, Mr. Chairman.    And good afternoon to all of you.    I'm sitting here and I know that we're talking about consulate construction, but I just came home from the U.S. Virgin Islands, which is now, along with Puerto Rico, considered the fourth border. And we had a weekend of violence that was profound, with a young man being gunned down in a daycare parking lot while his wife went to pick up their child; 100 shots being fired in the early evening in another part of the town; and then the following morning in front of a high school at 9:00 in the morning, granted it was a Saturday, another individual being gunned down.    And I understand that a lot of this is, one, due to economic non-opportunity, failing schools, but also because of the guns and drugs that come through borders like my own. And when I look at, in 2007, that the U.S. and Mexico began what I hear is called the Merida Initiative, which, according to the State Department, is an initiative with four general goals: To disrupt criminal organizations, strengthen judicial institutions, improve border infrastructure and technology, and improve stability in the Mexican community.    I wish that places like Puerto Rico and the U.S. Virgin Islands had an initiative with its own government like that. But when I see some of the bills that are coming through and the lack of appropriations and the lack of support I'm getting from many of my colleagues on that, it makes me question if any of that's ever going to happen.    But I know we're here supposed to talk about consulate construction and progress in Mexico, and so I've digressed and I'll get back on topic to what I was supposed to be talking about.    I was fortunate to go with my colleague, Mr. Chaffetz, to Mexico in May because I was interested in seeing how borders and consulates operate to stem not just the tide of illegal drugs and guns and individuals coming undocumented into this country, but also the amount of work and cooperation that's done in agriculture as well in places like between Mexico and the United States, and the amount of trade and consumer goods and commerce that happens in these areas.    And so we went and we visited the site where the new Mexico City Embassy was supposed to be built. And I understand that there are a lot of consulates in this area because of the amount of commerce and trade along with individuals that go on in these areas.    So I wanted to ask--and I think, Mr. Moser, you would be the appropriate person--the three consulates in dangerous areas near the border, Tijuana, Juarez, Monterrey, they've all recently been completed in 2008, 2011, and 2014 respectively. Is that correct?</t>
   </si>
   <si>
@@ -931,9 +880,6 @@
     <t>412623</t>
   </si>
   <si>
-    <t>Jody B. Hice</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hice. Thank you, Mr. Chairman.    Let me begin, Mr. Judd, with you. Is it your understanding--okay. I know that you said you don't work at the ports of entry. But is it your understanding that the BCC cards can be used by individuals illegally to get into the country?</t>
   </si>
   <si>
@@ -1030,9 +976,6 @@
     <t xml:space="preserve">    Chairman Chaffetz. Thank you.    And we don't have the--necessarily the proper panelists to deal with this part of it, but to lead on, to follow up with what you said, one of the most infuriating parts of this are the people who are here illegally and commit crimes only to be released back into the interior of the United States of America.    For fiscal year 2013 and 2014, the Obama administration released roughly 66,000 criminal aliens. According to enforcement and removal operations, there are 925,000 people with final orders to be removed from the country who have not--that they haven't been removed.    You know, there are people that are here illegally, and then there are people that are here illegally and they committed a crime. And to not focus on those people and make sure that they leave the country--and then when they do, to find that a huge percentage of them have to get picked up coming back across the border, I mean, how do you look people in the eye and say 925,000 people are here illegally or ordered to leave the country and they did not.    And then you add on top of that the number of other criminals, they're in our possession. We have them. They were caught. They were convicted. And we said, ``Go ahead. You're released.'' And we have horrific stories in just about every single State you can think about. And it's just horrendous.    We're now pleased to recognize Mr. Cuellar who lives in Texas. He's very dedicated on this issue. We appreciate him and glad to waive him in by unanimous consent. We'll now recognize him for 5 minutes.</t>
   </si>
   <si>
-    <t>Cuellar</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cuellar. Mr. Chairman, thank you again for allowing me to be back in my former committee. Thank you and thank the ranking member also.    I want to thank the witnesses from the State Department. Thank you for the good job that you do. I know it's a difficult job, but we appreciate it.    My good friend Robert Harris, who used to live in Laredo, moved to the northern part of my district of San Antonio. It's always a good pleasure to see you and all the good work you did down there.    Mr. Judd, all your men and women that work for Border Patrol--I mean that work along with you and with Robert and all that, they do a good job. You know, I think anybody on the border--as you know, my brother is Border Patrol--I mean, well, border sheriff should I say down there in the border. So he and I, you know, we've lived there all my life. Like I said, I drink the water. I breathe the air down there. My family lives there. I go back every weekend back to the border. So I do want to say thank you for all the work that you all do.    Again, Mr. Chairman, I do know there's a couple issues, and I think there's some things that I would like to work with you, as we talked a while ago. I want to talk about danger pay. I think on danger pay, for the folks at the State Department, I think we need to talk about it. I think that's something that I think Congress will probably be involved in this issue.    My understanding is you already let some of your employees know--you haven't let us know, but I can tell you that Congress will probably have a say so on this. Not that we want to micromanage, but I think it's part of--at least the appropriations process will be involved.    The issue of cost of construction--and I understand--I've been to the one in Mexico. I understand what they're doing over in Laredo and other parts of the world. I think the cost of construction is extremely high. Sometimes people, I think, they charge us just because we're the Federal Government, they charge us more. I understand all the arguments about security and you've got to do this. I understand all that, but I still think they're a little high.    On the issues of closing the consulate, Mr. Chairman, I think we definitely disagree on that. I don't think we ought to close the consulates. Let me just try to address, Mr. Chairman, if you allow me just a few minutes beyond my 5 minutes, since I think everybody's gone now except you and I. Let me talk about the border. I want to go from the border and then go into Mexico.    If you look at the FBI statistics, the border crime rate or the national crime rate is about 4.5 murders per 100,000. Laredo, my hometown, is about 1.5 murders per 100,000. You take the border crime rate, it's lower than the national crime rate using FBI stats, murder, assaults, rapes, you know, name them.    If you look at the top ten cities with the highest murder rates in the U.S. for 100,000 population, none of them are on the border. None of them are on the border. If you look at one of the NGOs that looked at the top 50 cities with the highest homicides per 100,000, and if you look at it, you know, you have San Pedro Sula--this is from the year 2011 to 2014--number one is in Honduras, San Pedro Sula, Honduras. You had Acapulco, number three, 104 murders for 100,000. The number one was about 171 murders per 100,000.    Then you go on--sorry if there's anybody--any of my colleagues--San Luis was number 19. And then you had Detroit, number 22. Then you had Juarez, who the numbers I've gone down was number 27. Then you had the Nuevo Laredo, number 34. Then you had Baltimore number 40, and then go all the way down to Cuernavaca in Mexico on that.    So, again, I would ask you to look at some of these numbers because there's always the reality and the perception. And being on the border, I'll be the first one to say, Mr. Chairman, you know, there are problems like any other city, but it's not the way some people paint it to be.    Travel warnings, again, if we go based on travel warnings that I--we pulled out the travel warnings that the State Department has. Yes, I do see Mexico here, but I do see so many other countries where there's travel warnings. And if we go on the basis of travel warning, Mr. Chairman, I think we probably have to close consulates.    And there's two and-a-half pages of countries that we probably have to include, including one of the ones that we're dealing with this week or maybe I just saw a note that we might postpone the Israel issue. Even the West Bank and Gaza, there's a travel warning there on that. So I can go on two and-a-half pages of countries if we happen to go on that.    Why do we need consulates on that even in places like Mexico? Two reasons: One is the trade and the relations that we have, but the other one has to do with immigration itself first.    Before I go on that, let me just talk about Mexico. Before we did plan Merida, and in 2008 we worked with Ambassador Garza, President Bush, Roberta Jacobson, which I'm hoping will become--will soon be the Ambassador of Mexico. Mr. Chairman, she's a good lady to know. I think you might know her. She'll be a great Ambassador to Mexico.    We were giving Mexico $36 million a year, while we give certain countries like Israel $3.1 billion a year. And here is Mexico, which is one of our greatest trading partners. Mr. Chairman, I think you highlighted some of the numbers. But let me talk about Laredo where you and Blake--and I'm sorry I couldn't be there. I was bringing my little girl up to Washington the day you were up here.    But Laredo, for example, handles about 40 percent of all the trade between the U.S. and Mexico. Twelve thousand trailers a day that we have there. If you put the trucks, line them up, up and down the border, on the day basis, all the trucks Laredo on 1 day would go from Laredo to a little bit south of San Antonio. You put all the trucks on a monthly basis going through just Laredo, it will go from Laredo all the way to La Paz, Bolivia.    And if you go on the number of trucks that pass Laredo on a year, they almost will wrap around the world twice. So it gives you the half trillion dollars that we have of trade every day. Shows you why Mexico is so important to us.    And by the way, one more for the folks that want to push Mexico away, if an end port comes in from China, it has about a 4 percent American parts on it. If something comes in from Canada, our number one trading partner, will have about 25 percent parts. But if something comes in from Mexico, an import comes in from Mexico, it will have 40 percent American parts with it. So that shows the connection that we have with Mexico.    Trade. Let me go into immigration, part of it. Robert, you and I spoke a lot--Mr. Harris, we spoke a lot about the unaccompanied kids that came in last year on that. We've seen the numbers gone down, Mr. Chairman. They've gone down. They're about half. But, again, we can add more Border Patrol--and I agree adding more Border Patrol. I want to see more men and women in blue, which are the customs officers. But if you look at something that has happened, I've always said that we can't play defense on the 1 yard line, which is called the U.S. border.    We spend about $18 billion for border security across the Nation. If we just play a little different defense on the 20-yard line--and last year the appropriations, we added--I think we worked with you all--we added about $80 million to help Mexico secure the southern border with Guatemala.    We always talk about southern border, but we ought to look at the southern border with Mexico. If you look at it, from October 2014 to April 2015, Mexico apprehended over 92,000 Central American migrants, 20,000 more than we do in the U.S., 70,000. So if we would have--if Mexico would allow those 92,000, Border Patrol would have been dealing with those folks a lot more.    So Mr. Chairman, I do understand that we have issues in Mexico. There's no ifs. But we need to work with them. Construction costs, I agree; I think they're a little high. We can work on that. Closing the consulates, bad mistake. Danger pay, Mr. Chairman, I want to work with you because I think we need to talk about. There are certain parts of Mexico where I think they deserve danger pay.    So, Mr. Chairman, thank you so much for allowing me to be back in my former committee.    And to all the witnesses, thank you so much for all of--for all the good work that you do.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -1040,9 +983,6 @@
   </si>
   <si>
     <t>412661</t>
-  </si>
-  <si>
-    <t>Glenn Grothman</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Grothman. Okay. I've been in another hearing so I hope I don't repeat some questions.    First of all, I want to point out that overall, you know, we're kind of highlighting Mexico here. And just reviewing the murder rates around the country, Mexico was far from the most violent country in the world, right? I mean, you have countries like Jamaica or El Salvador that are maybe twice the murder rate or Honduras which is four times the murder rate of Mexico.    But Mexico does have a high murder rate. I think it's about four times--over four times the American rate. Five times--I say four times the American rate. I wonder if some of you could maybe comment on the differences in some cities compared to other cities and whether you think it is right now particularly dangerous in these cities with the higher rates themselves.</t>
@@ -1666,11 +1606,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1690,13 +1628,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1718,11 +1654,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1744,11 +1678,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1770,11 +1702,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1794,13 +1724,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1822,11 +1750,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1848,11 +1774,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1872,13 +1796,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1900,11 +1822,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1926,11 +1846,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1950,13 +1868,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1978,11 +1894,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2004,11 +1918,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2028,13 +1940,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2056,11 +1966,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2082,11 +1990,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2106,13 +2012,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2134,11 +2038,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2160,11 +2062,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2184,13 +2084,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2212,11 +2110,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2236,13 +2132,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2264,11 +2158,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2288,13 +2180,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2316,11 +2206,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2340,13 +2228,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2368,11 +2254,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2392,13 +2276,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2420,11 +2302,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2444,13 +2324,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2472,11 +2350,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2496,13 +2372,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2524,11 +2398,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2548,13 +2420,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2576,11 +2446,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2600,13 +2468,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2628,11 +2494,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2652,13 +2516,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2680,11 +2542,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2704,13 +2564,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2732,11 +2590,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2756,13 +2612,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2784,11 +2638,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2808,13 +2660,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2836,11 +2686,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2860,13 +2708,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2888,11 +2734,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2912,13 +2756,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2940,11 +2782,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2964,13 +2804,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2992,11 +2830,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3016,13 +2852,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3044,11 +2878,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3068,13 +2900,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3096,11 +2926,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>12</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3120,13 +2948,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3148,11 +2974,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3172,13 +2996,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>20</v>
-      </c>
-      <c r="G60" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3200,11 +3022,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3224,13 +3044,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G62" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3252,11 +3070,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>12</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3276,13 +3092,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>20</v>
-      </c>
-      <c r="G64" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3304,11 +3118,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3328,13 +3140,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3356,11 +3166,9 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
-        <v>12</v>
-      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3380,13 +3188,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>20</v>
-      </c>
-      <c r="G68" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3408,11 +3214,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>12</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3432,13 +3236,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>20</v>
-      </c>
-      <c r="G70" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3460,11 +3262,9 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>12</v>
-      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3484,13 +3284,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>20</v>
-      </c>
-      <c r="G72" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3512,11 +3310,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3536,13 +3332,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3562,13 +3356,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>20</v>
-      </c>
-      <c r="G75" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3588,13 +3380,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3614,13 +3404,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>20</v>
-      </c>
-      <c r="G77" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3640,13 +3428,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3666,13 +3452,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
-      </c>
-      <c r="G79" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3692,13 +3476,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3718,13 +3500,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>20</v>
-      </c>
-      <c r="G81" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3744,13 +3524,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3770,13 +3548,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>20</v>
-      </c>
-      <c r="G83" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3796,13 +3572,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3822,13 +3596,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>20</v>
-      </c>
-      <c r="G85" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3848,13 +3620,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3874,13 +3644,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>20</v>
-      </c>
-      <c r="G87" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3900,13 +3668,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3926,13 +3692,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>20</v>
-      </c>
-      <c r="G89" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3952,13 +3716,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3978,13 +3740,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>20</v>
-      </c>
-      <c r="G91" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4004,13 +3764,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4030,13 +3788,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>20</v>
-      </c>
-      <c r="G93" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4056,13 +3812,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4082,13 +3836,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>20</v>
-      </c>
-      <c r="G95" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4108,13 +3860,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>14</v>
-      </c>
-      <c r="G96" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4134,13 +3884,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>20</v>
-      </c>
-      <c r="G97" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4160,13 +3908,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4186,13 +3932,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>20</v>
-      </c>
-      <c r="G99" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4212,13 +3956,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4238,13 +3980,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>20</v>
-      </c>
-      <c r="G101" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4264,13 +4004,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4290,13 +4028,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>20</v>
-      </c>
-      <c r="G103" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4316,13 +4052,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4342,13 +4076,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>20</v>
-      </c>
-      <c r="G105" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4368,13 +4100,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>14</v>
-      </c>
-      <c r="G106" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4394,13 +4124,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>20</v>
-      </c>
-      <c r="G107" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4420,13 +4148,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>14</v>
-      </c>
-      <c r="G108" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4446,13 +4172,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>20</v>
-      </c>
-      <c r="G109" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4472,13 +4196,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G110" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4498,13 +4220,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>20</v>
-      </c>
-      <c r="G111" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4524,13 +4244,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>14</v>
-      </c>
-      <c r="G112" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4552,11 +4270,9 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
-        <v>12</v>
-      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4576,13 +4292,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>14</v>
-      </c>
-      <c r="G114" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4602,13 +4316,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>20</v>
-      </c>
-      <c r="G115" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4630,11 +4342,9 @@
       <c r="F116" t="s">
         <v>11</v>
       </c>
-      <c r="G116" t="s">
-        <v>12</v>
-      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4656,11 +4366,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>12</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4680,13 +4388,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>133</v>
-      </c>
-      <c r="G118" t="s">
-        <v>134</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4706,13 +4412,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>20</v>
-      </c>
-      <c r="G119" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4732,13 +4436,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>133</v>
-      </c>
-      <c r="G120" t="s">
-        <v>134</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4758,13 +4460,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>20</v>
-      </c>
-      <c r="G121" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4784,13 +4484,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>133</v>
-      </c>
-      <c r="G122" t="s">
-        <v>134</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4810,13 +4508,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>20</v>
-      </c>
-      <c r="G123" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4836,13 +4532,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
+        <v>126</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
         <v>133</v>
-      </c>
-      <c r="G124" t="s">
-        <v>134</v>
-      </c>
-      <c r="H124" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4862,13 +4556,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>20</v>
-      </c>
-      <c r="G125" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4888,13 +4580,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>133</v>
-      </c>
-      <c r="G126" t="s">
-        <v>134</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4914,13 +4604,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>20</v>
-      </c>
-      <c r="G127" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4940,13 +4628,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>20</v>
-      </c>
-      <c r="G128" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4966,13 +4652,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>133</v>
-      </c>
-      <c r="G129" t="s">
-        <v>134</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4992,13 +4676,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>20</v>
-      </c>
-      <c r="G130" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5018,13 +4700,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>133</v>
-      </c>
-      <c r="G131" t="s">
-        <v>134</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5044,13 +4724,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>20</v>
-      </c>
-      <c r="G132" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5070,13 +4748,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>133</v>
-      </c>
-      <c r="G133" t="s">
-        <v>134</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5096,13 +4772,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>133</v>
-      </c>
-      <c r="G134" t="s">
-        <v>134</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5122,13 +4796,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>20</v>
-      </c>
-      <c r="G135" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5148,13 +4820,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>133</v>
-      </c>
-      <c r="G136" t="s">
-        <v>134</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5174,13 +4844,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>20</v>
-      </c>
-      <c r="G137" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5200,13 +4868,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>133</v>
-      </c>
-      <c r="G138" t="s">
-        <v>134</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5226,13 +4892,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>20</v>
-      </c>
-      <c r="G139" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5252,13 +4916,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>133</v>
-      </c>
-      <c r="G140" t="s">
-        <v>134</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5278,13 +4940,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>20</v>
-      </c>
-      <c r="G141" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5304,13 +4964,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>133</v>
-      </c>
-      <c r="G142" t="s">
-        <v>134</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5330,13 +4988,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>20</v>
-      </c>
-      <c r="G143" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5356,13 +5012,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>133</v>
-      </c>
-      <c r="G144" t="s">
-        <v>134</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5382,13 +5036,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>20</v>
-      </c>
-      <c r="G145" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5408,13 +5060,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>133</v>
-      </c>
-      <c r="G146" t="s">
-        <v>134</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5434,13 +5084,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>20</v>
-      </c>
-      <c r="G147" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5460,13 +5108,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>133</v>
-      </c>
-      <c r="G148" t="s">
-        <v>134</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5488,11 +5134,9 @@
       <c r="F149" t="s">
         <v>11</v>
       </c>
-      <c r="G149" t="s">
-        <v>12</v>
-      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5512,13 +5156,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>167</v>
-      </c>
-      <c r="G150" t="s">
-        <v>168</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5540,11 +5182,9 @@
       <c r="F151" t="s">
         <v>11</v>
       </c>
-      <c r="G151" t="s">
-        <v>12</v>
-      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5564,13 +5204,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>167</v>
-      </c>
-      <c r="G152" t="s">
-        <v>168</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5590,13 +5228,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>20</v>
-      </c>
-      <c r="G153" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5616,13 +5252,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>167</v>
-      </c>
-      <c r="G154" t="s">
-        <v>168</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5642,13 +5276,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>20</v>
-      </c>
-      <c r="G155" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5670,11 +5302,9 @@
       <c r="F156" t="s">
         <v>11</v>
       </c>
-      <c r="G156" t="s">
-        <v>12</v>
-      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5694,13 +5324,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
+        <v>159</v>
+      </c>
+      <c r="G157" t="s"/>
+      <c r="H157" t="s">
         <v>167</v>
-      </c>
-      <c r="G157" t="s">
-        <v>168</v>
-      </c>
-      <c r="H157" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5722,11 +5350,9 @@
       <c r="F158" t="s">
         <v>11</v>
       </c>
-      <c r="G158" t="s">
-        <v>12</v>
-      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5746,13 +5372,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>178</v>
-      </c>
-      <c r="G159" t="s">
-        <v>179</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5772,13 +5396,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>167</v>
-      </c>
-      <c r="G160" t="s">
-        <v>168</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5798,13 +5420,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>178</v>
-      </c>
-      <c r="G161" t="s">
-        <v>179</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5824,13 +5444,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>20</v>
-      </c>
-      <c r="G162" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5850,13 +5468,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>178</v>
-      </c>
-      <c r="G163" t="s">
-        <v>179</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5876,13 +5492,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>20</v>
-      </c>
-      <c r="G164" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5902,13 +5516,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>178</v>
-      </c>
-      <c r="G165" t="s">
-        <v>179</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5928,13 +5540,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>20</v>
-      </c>
-      <c r="G166" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5954,13 +5564,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
+        <v>169</v>
+      </c>
+      <c r="G167" t="s"/>
+      <c r="H167" t="s">
         <v>178</v>
-      </c>
-      <c r="G167" t="s">
-        <v>179</v>
-      </c>
-      <c r="H167" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5980,13 +5588,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>20</v>
-      </c>
-      <c r="G168" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6006,13 +5612,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>178</v>
-      </c>
-      <c r="G169" t="s">
-        <v>179</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6032,13 +5636,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>20</v>
-      </c>
-      <c r="G170" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6058,13 +5660,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>178</v>
-      </c>
-      <c r="G171" t="s">
-        <v>179</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6084,13 +5684,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>20</v>
-      </c>
-      <c r="G172" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6110,13 +5708,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>178</v>
-      </c>
-      <c r="G173" t="s">
-        <v>179</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6138,11 +5734,9 @@
       <c r="F174" t="s">
         <v>11</v>
       </c>
-      <c r="G174" t="s">
-        <v>12</v>
-      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6162,13 +5756,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>196</v>
-      </c>
-      <c r="G175" t="s">
-        <v>197</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6188,13 +5780,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>20</v>
-      </c>
-      <c r="G176" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6214,13 +5804,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>196</v>
-      </c>
-      <c r="G177" t="s">
-        <v>197</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6240,13 +5828,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>20</v>
-      </c>
-      <c r="G178" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6266,13 +5852,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>196</v>
-      </c>
-      <c r="G179" t="s">
-        <v>197</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6292,13 +5876,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>20</v>
-      </c>
-      <c r="G180" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6318,13 +5900,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>196</v>
-      </c>
-      <c r="G181" t="s">
-        <v>197</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6344,13 +5924,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>20</v>
-      </c>
-      <c r="G182" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6370,13 +5948,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>196</v>
-      </c>
-      <c r="G183" t="s">
-        <v>197</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6396,13 +5972,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>20</v>
-      </c>
-      <c r="G184" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6422,13 +5996,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>196</v>
-      </c>
-      <c r="G185" t="s">
+        <v>186</v>
+      </c>
+      <c r="G185" t="s"/>
+      <c r="H185" t="s">
         <v>197</v>
-      </c>
-      <c r="H185" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6450,11 +6022,9 @@
       <c r="F186" t="s">
         <v>11</v>
       </c>
-      <c r="G186" t="s">
-        <v>12</v>
-      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6474,13 +6044,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>210</v>
-      </c>
-      <c r="G187" t="s">
-        <v>211</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6500,13 +6068,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>20</v>
-      </c>
-      <c r="G188" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6526,13 +6092,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>210</v>
-      </c>
-      <c r="G189" t="s">
-        <v>211</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6552,13 +6116,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>20</v>
-      </c>
-      <c r="G190" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6578,13 +6140,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>210</v>
-      </c>
-      <c r="G191" t="s">
-        <v>211</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6604,13 +6164,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>20</v>
-      </c>
-      <c r="G192" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6630,13 +6188,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>210</v>
-      </c>
-      <c r="G193" t="s">
-        <v>211</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6656,13 +6212,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>20</v>
-      </c>
-      <c r="G194" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6682,13 +6236,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>210</v>
-      </c>
-      <c r="G195" t="s">
-        <v>211</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6708,13 +6260,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>20</v>
-      </c>
-      <c r="G196" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6734,13 +6284,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
+        <v>199</v>
+      </c>
+      <c r="G197" t="s"/>
+      <c r="H197" t="s">
         <v>210</v>
-      </c>
-      <c r="G197" t="s">
-        <v>211</v>
-      </c>
-      <c r="H197" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6760,13 +6308,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>20</v>
-      </c>
-      <c r="G198" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6786,13 +6332,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>210</v>
-      </c>
-      <c r="G199" t="s">
-        <v>211</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6812,13 +6356,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>20</v>
-      </c>
-      <c r="G200" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6838,13 +6380,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>210</v>
-      </c>
-      <c r="G201" t="s">
-        <v>211</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6866,11 +6406,9 @@
       <c r="F202" t="s">
         <v>11</v>
       </c>
-      <c r="G202" t="s">
-        <v>12</v>
-      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6890,13 +6428,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>20</v>
-      </c>
-      <c r="G203" t="s">
-        <v>228</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6916,13 +6452,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>20</v>
-      </c>
-      <c r="G204" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6942,13 +6476,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>20</v>
-      </c>
-      <c r="G205" t="s">
-        <v>228</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6968,13 +6500,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>20</v>
-      </c>
-      <c r="G206" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6994,13 +6524,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>20</v>
-      </c>
-      <c r="G207" t="s">
-        <v>228</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7020,13 +6548,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>20</v>
-      </c>
-      <c r="G208" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7046,13 +6572,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>20</v>
-      </c>
-      <c r="G209" t="s">
-        <v>228</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7074,11 +6598,9 @@
       <c r="F210" t="s">
         <v>11</v>
       </c>
-      <c r="G210" t="s">
-        <v>12</v>
-      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7098,13 +6620,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>237</v>
-      </c>
-      <c r="G211" t="s">
-        <v>238</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7124,13 +6644,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>20</v>
-      </c>
-      <c r="G212" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7150,13 +6668,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>237</v>
-      </c>
-      <c r="G213" t="s">
-        <v>238</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7176,13 +6692,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>20</v>
-      </c>
-      <c r="G214" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7202,13 +6716,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>237</v>
-      </c>
-      <c r="G215" t="s">
-        <v>238</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7228,13 +6740,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>20</v>
-      </c>
-      <c r="G216" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7254,13 +6764,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>237</v>
-      </c>
-      <c r="G217" t="s">
-        <v>238</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7282,11 +6790,9 @@
       <c r="F218" t="s">
         <v>11</v>
       </c>
-      <c r="G218" t="s">
-        <v>12</v>
-      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7306,13 +6812,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>247</v>
-      </c>
-      <c r="G219" t="s">
-        <v>248</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7332,13 +6836,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>20</v>
-      </c>
-      <c r="G220" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7358,13 +6860,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>247</v>
-      </c>
-      <c r="G221" t="s">
-        <v>248</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7384,13 +6884,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>20</v>
-      </c>
-      <c r="G222" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7410,13 +6908,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>247</v>
-      </c>
-      <c r="G223" t="s">
-        <v>248</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7438,11 +6934,9 @@
       <c r="F224" t="s">
         <v>11</v>
       </c>
-      <c r="G224" t="s">
-        <v>12</v>
-      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7462,13 +6956,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>255</v>
-      </c>
-      <c r="G225" t="s">
-        <v>256</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7488,13 +6980,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>20</v>
-      </c>
-      <c r="G226" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7514,13 +7004,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>255</v>
-      </c>
-      <c r="G227" t="s">
-        <v>256</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7540,13 +7028,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>20</v>
-      </c>
-      <c r="G228" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7566,13 +7052,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>255</v>
-      </c>
-      <c r="G229" t="s">
-        <v>256</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7592,13 +7076,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>20</v>
-      </c>
-      <c r="G230" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7618,13 +7100,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>255</v>
-      </c>
-      <c r="G231" t="s">
-        <v>256</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7644,13 +7124,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>20</v>
-      </c>
-      <c r="G232" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7670,13 +7148,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>255</v>
-      </c>
-      <c r="G233" t="s">
-        <v>256</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7696,13 +7172,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>20</v>
-      </c>
-      <c r="G234" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7722,13 +7196,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>255</v>
-      </c>
-      <c r="G235" t="s">
-        <v>256</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7750,11 +7222,9 @@
       <c r="F236" t="s">
         <v>11</v>
       </c>
-      <c r="G236" t="s">
-        <v>12</v>
-      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7774,13 +7244,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>20</v>
-      </c>
-      <c r="G237" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7802,11 +7270,9 @@
       <c r="F238" t="s">
         <v>11</v>
       </c>
-      <c r="G238" t="s">
-        <v>12</v>
-      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7826,13 +7292,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>20</v>
-      </c>
-      <c r="G239" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7854,11 +7318,9 @@
       <c r="F240" t="s">
         <v>11</v>
       </c>
-      <c r="G240" t="s">
-        <v>12</v>
-      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7878,13 +7340,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>20</v>
-      </c>
-      <c r="G241" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7906,11 +7366,9 @@
       <c r="F242" t="s">
         <v>11</v>
       </c>
-      <c r="G242" t="s">
-        <v>12</v>
-      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7930,13 +7388,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>20</v>
-      </c>
-      <c r="G243" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7958,11 +7414,9 @@
       <c r="F244" t="s">
         <v>11</v>
       </c>
-      <c r="G244" t="s">
-        <v>12</v>
-      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7982,13 +7436,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>20</v>
-      </c>
-      <c r="G245" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8010,11 +7462,9 @@
       <c r="F246" t="s">
         <v>11</v>
       </c>
-      <c r="G246" t="s">
-        <v>12</v>
-      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8034,13 +7484,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>279</v>
-      </c>
-      <c r="G247" t="s">
-        <v>280</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8060,13 +7508,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>20</v>
-      </c>
-      <c r="G248" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8086,13 +7532,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>279</v>
-      </c>
-      <c r="G249" t="s">
-        <v>280</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8112,13 +7556,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>20</v>
-      </c>
-      <c r="G250" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8138,13 +7580,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>279</v>
-      </c>
-      <c r="G251" t="s">
-        <v>280</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8164,13 +7604,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>20</v>
-      </c>
-      <c r="G252" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8190,13 +7628,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>279</v>
-      </c>
-      <c r="G253" t="s">
-        <v>280</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8216,13 +7652,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>20</v>
-      </c>
-      <c r="G254" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8242,13 +7676,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>279</v>
-      </c>
-      <c r="G255" t="s">
-        <v>280</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8268,13 +7700,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>20</v>
-      </c>
-      <c r="G256" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8294,13 +7724,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>279</v>
-      </c>
-      <c r="G257" t="s">
-        <v>280</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8320,13 +7748,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>20</v>
-      </c>
-      <c r="G258" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8346,13 +7772,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>279</v>
-      </c>
-      <c r="G259" t="s">
-        <v>280</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8372,13 +7796,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>20</v>
-      </c>
-      <c r="G260" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8398,13 +7820,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>279</v>
-      </c>
-      <c r="G261" t="s">
-        <v>280</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8424,13 +7844,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>20</v>
-      </c>
-      <c r="G262" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8450,13 +7868,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
+        <v>263</v>
+      </c>
+      <c r="G263" t="s"/>
+      <c r="H263" t="s">
         <v>279</v>
-      </c>
-      <c r="G263" t="s">
-        <v>280</v>
-      </c>
-      <c r="H263" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8476,13 +7892,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>20</v>
-      </c>
-      <c r="G264" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8502,13 +7916,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>279</v>
-      </c>
-      <c r="G265" t="s">
-        <v>280</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8528,13 +7940,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>20</v>
-      </c>
-      <c r="G266" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8554,13 +7964,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>279</v>
-      </c>
-      <c r="G267" t="s">
-        <v>280</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8580,13 +7988,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>20</v>
-      </c>
-      <c r="G268" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8606,13 +8012,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>279</v>
-      </c>
-      <c r="G269" t="s">
-        <v>280</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8634,11 +8038,9 @@
       <c r="F270" t="s">
         <v>11</v>
       </c>
-      <c r="G270" t="s">
-        <v>12</v>
-      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8658,13 +8060,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>304</v>
-      </c>
-      <c r="G271" t="s">
-        <v>305</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8684,13 +8084,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>20</v>
-      </c>
-      <c r="G272" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8710,13 +8108,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>304</v>
-      </c>
-      <c r="G273" t="s">
-        <v>305</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8736,13 +8132,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>20</v>
-      </c>
-      <c r="G274" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8762,13 +8156,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>304</v>
-      </c>
-      <c r="G275" t="s">
-        <v>305</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8788,13 +8180,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>20</v>
-      </c>
-      <c r="G276" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8814,13 +8204,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>304</v>
-      </c>
-      <c r="G277" t="s">
-        <v>305</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8840,13 +8228,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>20</v>
-      </c>
-      <c r="G278" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8866,13 +8252,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>304</v>
-      </c>
-      <c r="G279" t="s">
-        <v>305</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8892,13 +8276,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>20</v>
-      </c>
-      <c r="G280" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8918,13 +8300,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>304</v>
-      </c>
-      <c r="G281" t="s">
-        <v>305</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8944,13 +8324,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>20</v>
-      </c>
-      <c r="G282" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8970,13 +8348,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>304</v>
-      </c>
-      <c r="G283" t="s">
-        <v>305</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8996,13 +8372,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>20</v>
-      </c>
-      <c r="G284" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9022,13 +8396,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>304</v>
-      </c>
-      <c r="G285" t="s">
-        <v>305</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9048,13 +8420,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>20</v>
-      </c>
-      <c r="G286" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9074,13 +8444,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
+        <v>287</v>
+      </c>
+      <c r="G287" t="s"/>
+      <c r="H287" t="s">
         <v>304</v>
-      </c>
-      <c r="G287" t="s">
-        <v>305</v>
-      </c>
-      <c r="H287" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9100,13 +8468,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>20</v>
-      </c>
-      <c r="G288" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9126,13 +8492,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>304</v>
-      </c>
-      <c r="G289" t="s">
-        <v>305</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9152,13 +8516,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>20</v>
-      </c>
-      <c r="G290" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9178,13 +8540,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>304</v>
-      </c>
-      <c r="G291" t="s">
-        <v>305</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9204,13 +8564,11 @@
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>20</v>
-      </c>
-      <c r="G292" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9230,13 +8588,11 @@
         <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>304</v>
-      </c>
-      <c r="G293" t="s">
-        <v>305</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9256,13 +8612,11 @@
         <v>10</v>
       </c>
       <c r="F294" t="s">
-        <v>20</v>
-      </c>
-      <c r="G294" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9282,13 +8636,11 @@
         <v>10</v>
       </c>
       <c r="F295" t="s">
-        <v>304</v>
-      </c>
-      <c r="G295" t="s">
-        <v>305</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9308,13 +8660,11 @@
         <v>10</v>
       </c>
       <c r="F296" t="s">
-        <v>20</v>
-      </c>
-      <c r="G296" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9334,13 +8684,11 @@
         <v>10</v>
       </c>
       <c r="F297" t="s">
-        <v>304</v>
-      </c>
-      <c r="G297" t="s">
-        <v>305</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9360,13 +8708,11 @@
         <v>10</v>
       </c>
       <c r="F298" t="s">
-        <v>20</v>
-      </c>
-      <c r="G298" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9386,13 +8732,11 @@
         <v>10</v>
       </c>
       <c r="F299" t="s">
-        <v>304</v>
-      </c>
-      <c r="G299" t="s">
-        <v>305</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9412,13 +8756,11 @@
         <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>20</v>
-      </c>
-      <c r="G300" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9438,13 +8780,11 @@
         <v>10</v>
       </c>
       <c r="F301" t="s">
-        <v>304</v>
-      </c>
-      <c r="G301" t="s">
-        <v>305</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9466,11 +8806,9 @@
       <c r="F302" t="s">
         <v>11</v>
       </c>
-      <c r="G302" t="s">
-        <v>12</v>
-      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9490,13 +8828,11 @@
         <v>10</v>
       </c>
       <c r="F303" t="s">
-        <v>20</v>
-      </c>
-      <c r="G303" t="s">
-        <v>338</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9518,11 +8854,9 @@
       <c r="F304" t="s">
         <v>11</v>
       </c>
-      <c r="G304" t="s">
-        <v>12</v>
-      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9542,13 +8876,11 @@
         <v>10</v>
       </c>
       <c r="F305" t="s">
-        <v>341</v>
-      </c>
-      <c r="G305" t="s">
-        <v>342</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9568,13 +8900,11 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>20</v>
-      </c>
-      <c r="G306" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9594,13 +8924,11 @@
         <v>10</v>
       </c>
       <c r="F307" t="s">
-        <v>341</v>
-      </c>
-      <c r="G307" t="s">
-        <v>342</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9620,13 +8948,11 @@
         <v>10</v>
       </c>
       <c r="F308" t="s">
-        <v>20</v>
-      </c>
-      <c r="G308" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9646,13 +8972,11 @@
         <v>10</v>
       </c>
       <c r="F309" t="s">
-        <v>341</v>
-      </c>
-      <c r="G309" t="s">
-        <v>342</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9672,13 +8996,11 @@
         <v>10</v>
       </c>
       <c r="F310" t="s">
-        <v>20</v>
-      </c>
-      <c r="G310" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9698,13 +9020,11 @@
         <v>10</v>
       </c>
       <c r="F311" t="s">
-        <v>341</v>
-      </c>
-      <c r="G311" t="s">
-        <v>342</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9724,13 +9044,11 @@
         <v>10</v>
       </c>
       <c r="F312" t="s">
-        <v>20</v>
-      </c>
-      <c r="G312" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G312" t="s"/>
       <c r="H312" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9750,13 +9068,11 @@
         <v>10</v>
       </c>
       <c r="F313" t="s">
-        <v>20</v>
-      </c>
-      <c r="G313" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9776,13 +9092,11 @@
         <v>10</v>
       </c>
       <c r="F314" t="s">
-        <v>20</v>
-      </c>
-      <c r="G314" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G314" t="s"/>
       <c r="H314" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9802,13 +9116,11 @@
         <v>10</v>
       </c>
       <c r="F315" t="s">
-        <v>20</v>
-      </c>
-      <c r="G315" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G315" t="s"/>
       <c r="H315" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9828,13 +9140,11 @@
         <v>10</v>
       </c>
       <c r="F316" t="s">
-        <v>341</v>
-      </c>
-      <c r="G316" t="s">
-        <v>342</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="G316" t="s"/>
       <c r="H316" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -9854,13 +9164,11 @@
         <v>10</v>
       </c>
       <c r="F317" t="s">
-        <v>20</v>
-      </c>
-      <c r="G317" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G317" t="s"/>
       <c r="H317" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -9880,13 +9188,11 @@
         <v>10</v>
       </c>
       <c r="F318" t="s">
-        <v>341</v>
-      </c>
-      <c r="G318" t="s">
-        <v>342</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="G318" t="s"/>
       <c r="H318" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -9906,13 +9212,11 @@
         <v>10</v>
       </c>
       <c r="F319" t="s">
-        <v>20</v>
-      </c>
-      <c r="G319" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G319" t="s"/>
       <c r="H319" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -9932,13 +9236,11 @@
         <v>10</v>
       </c>
       <c r="F320" t="s">
-        <v>341</v>
-      </c>
-      <c r="G320" t="s">
-        <v>342</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="G320" t="s"/>
       <c r="H320" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -9958,13 +9260,11 @@
         <v>10</v>
       </c>
       <c r="F321" t="s">
-        <v>20</v>
-      </c>
-      <c r="G321" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G321" t="s"/>
       <c r="H321" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9984,13 +9284,11 @@
         <v>10</v>
       </c>
       <c r="F322" t="s">
-        <v>341</v>
-      </c>
-      <c r="G322" t="s">
-        <v>342</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="G322" t="s"/>
       <c r="H322" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10012,11 +9310,9 @@
       <c r="F323" t="s">
         <v>11</v>
       </c>
-      <c r="G323" t="s">
-        <v>12</v>
-      </c>
+      <c r="G323" t="s"/>
       <c r="H323" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10036,13 +9332,11 @@
         <v>10</v>
       </c>
       <c r="F324" t="s">
-        <v>20</v>
-      </c>
-      <c r="G324" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G324" t="s"/>
       <c r="H324" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10064,11 +9358,9 @@
       <c r="F325" t="s">
         <v>11</v>
       </c>
-      <c r="G325" t="s">
-        <v>12</v>
-      </c>
+      <c r="G325" t="s"/>
       <c r="H325" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10088,13 +9380,11 @@
         <v>10</v>
       </c>
       <c r="F326" t="s">
-        <v>20</v>
-      </c>
-      <c r="G326" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G326" t="s"/>
       <c r="H326" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10116,11 +9406,9 @@
       <c r="F327" t="s">
         <v>11</v>
       </c>
-      <c r="G327" t="s">
-        <v>12</v>
-      </c>
+      <c r="G327" t="s"/>
       <c r="H327" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10140,13 +9428,11 @@
         <v>10</v>
       </c>
       <c r="F328" t="s">
-        <v>20</v>
-      </c>
-      <c r="G328" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G328" t="s"/>
       <c r="H328" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10168,11 +9454,9 @@
       <c r="F329" t="s">
         <v>11</v>
       </c>
-      <c r="G329" t="s">
-        <v>12</v>
-      </c>
+      <c r="G329" t="s"/>
       <c r="H329" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10192,13 +9476,11 @@
         <v>10</v>
       </c>
       <c r="F330" t="s">
-        <v>20</v>
-      </c>
-      <c r="G330" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G330" t="s"/>
       <c r="H330" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10220,11 +9502,9 @@
       <c r="F331" t="s">
         <v>11</v>
       </c>
-      <c r="G331" t="s">
-        <v>12</v>
-      </c>
+      <c r="G331" t="s"/>
       <c r="H331" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10244,13 +9524,11 @@
         <v>10</v>
       </c>
       <c r="F332" t="s">
-        <v>20</v>
-      </c>
-      <c r="G332" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G332" t="s"/>
       <c r="H332" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10272,11 +9550,9 @@
       <c r="F333" t="s">
         <v>11</v>
       </c>
-      <c r="G333" t="s">
-        <v>12</v>
-      </c>
+      <c r="G333" t="s"/>
       <c r="H333" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10296,13 +9572,11 @@
         <v>10</v>
       </c>
       <c r="F334" t="s">
-        <v>20</v>
-      </c>
-      <c r="G334" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G334" t="s"/>
       <c r="H334" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10324,11 +9598,9 @@
       <c r="F335" t="s">
         <v>11</v>
       </c>
-      <c r="G335" t="s">
-        <v>12</v>
-      </c>
+      <c r="G335" t="s"/>
       <c r="H335" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10348,13 +9620,11 @@
         <v>10</v>
       </c>
       <c r="F336" t="s">
-        <v>20</v>
-      </c>
-      <c r="G336" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G336" t="s"/>
       <c r="H336" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10376,11 +9646,9 @@
       <c r="F337" t="s">
         <v>11</v>
       </c>
-      <c r="G337" t="s">
-        <v>12</v>
-      </c>
+      <c r="G337" t="s"/>
       <c r="H337" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10400,13 +9668,11 @@
         <v>10</v>
       </c>
       <c r="F338" t="s">
-        <v>20</v>
-      </c>
-      <c r="G338" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G338" t="s"/>
       <c r="H338" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10428,11 +9694,9 @@
       <c r="F339" t="s">
         <v>11</v>
       </c>
-      <c r="G339" t="s">
-        <v>12</v>
-      </c>
+      <c r="G339" t="s"/>
       <c r="H339" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10452,13 +9716,11 @@
         <v>10</v>
       </c>
       <c r="F340" t="s">
-        <v>20</v>
-      </c>
-      <c r="G340" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G340" t="s"/>
       <c r="H340" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10480,11 +9742,9 @@
       <c r="F341" t="s">
         <v>11</v>
       </c>
-      <c r="G341" t="s">
-        <v>12</v>
-      </c>
+      <c r="G341" t="s"/>
       <c r="H341" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10504,13 +9764,11 @@
         <v>10</v>
       </c>
       <c r="F342" t="s">
-        <v>20</v>
-      </c>
-      <c r="G342" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G342" t="s"/>
       <c r="H342" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10532,11 +9790,9 @@
       <c r="F343" t="s">
         <v>11</v>
       </c>
-      <c r="G343" t="s">
-        <v>12</v>
-      </c>
+      <c r="G343" t="s"/>
       <c r="H343" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10556,13 +9812,11 @@
         <v>10</v>
       </c>
       <c r="F344" t="s">
-        <v>20</v>
-      </c>
-      <c r="G344" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G344" t="s"/>
       <c r="H344" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10584,11 +9838,9 @@
       <c r="F345" t="s">
         <v>11</v>
       </c>
-      <c r="G345" t="s">
-        <v>12</v>
-      </c>
+      <c r="G345" t="s"/>
       <c r="H345" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10608,13 +9860,11 @@
         <v>10</v>
       </c>
       <c r="F346" t="s">
-        <v>20</v>
-      </c>
-      <c r="G346" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G346" t="s"/>
       <c r="H346" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -10636,11 +9886,9 @@
       <c r="F347" t="s">
         <v>11</v>
       </c>
-      <c r="G347" t="s">
-        <v>12</v>
-      </c>
+      <c r="G347" t="s"/>
       <c r="H347" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -10660,13 +9908,11 @@
         <v>10</v>
       </c>
       <c r="F348" t="s">
-        <v>20</v>
-      </c>
-      <c r="G348" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G348" t="s"/>
       <c r="H348" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -10688,11 +9934,9 @@
       <c r="F349" t="s">
         <v>11</v>
       </c>
-      <c r="G349" t="s">
-        <v>12</v>
-      </c>
+      <c r="G349" t="s"/>
       <c r="H349" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -10712,13 +9956,11 @@
         <v>10</v>
       </c>
       <c r="F350" t="s">
-        <v>20</v>
-      </c>
-      <c r="G350" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G350" t="s"/>
       <c r="H350" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10740,11 +9982,9 @@
       <c r="F351" t="s">
         <v>11</v>
       </c>
-      <c r="G351" t="s">
-        <v>12</v>
-      </c>
+      <c r="G351" t="s"/>
       <c r="H351" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -10764,13 +10004,11 @@
         <v>10</v>
       </c>
       <c r="F352" t="s">
-        <v>20</v>
-      </c>
-      <c r="G352" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G352" t="s"/>
       <c r="H352" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -10792,11 +10030,9 @@
       <c r="F353" t="s">
         <v>11</v>
       </c>
-      <c r="G353" t="s">
-        <v>12</v>
-      </c>
+      <c r="G353" t="s"/>
       <c r="H353" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -10816,13 +10052,11 @@
         <v>10</v>
       </c>
       <c r="F354" t="s">
-        <v>20</v>
-      </c>
-      <c r="G354" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G354" t="s"/>
       <c r="H354" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -10844,11 +10078,9 @@
       <c r="F355" t="s">
         <v>11</v>
       </c>
-      <c r="G355" t="s">
-        <v>12</v>
-      </c>
+      <c r="G355" t="s"/>
       <c r="H355" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -10868,13 +10100,11 @@
         <v>10</v>
       </c>
       <c r="F356" t="s">
-        <v>20</v>
-      </c>
-      <c r="G356" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G356" t="s"/>
       <c r="H356" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -10896,11 +10126,9 @@
       <c r="F357" t="s">
         <v>11</v>
       </c>
-      <c r="G357" t="s">
-        <v>12</v>
-      </c>
+      <c r="G357" t="s"/>
       <c r="H357" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -10920,13 +10148,11 @@
         <v>10</v>
       </c>
       <c r="F358" t="s">
-        <v>20</v>
-      </c>
-      <c r="G358" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G358" t="s"/>
       <c r="H358" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -10948,11 +10174,9 @@
       <c r="F359" t="s">
         <v>11</v>
       </c>
-      <c r="G359" t="s">
-        <v>12</v>
-      </c>
+      <c r="G359" t="s"/>
       <c r="H359" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -10972,13 +10196,11 @@
         <v>10</v>
       </c>
       <c r="F360" t="s">
-        <v>20</v>
-      </c>
-      <c r="G360" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G360" t="s"/>
       <c r="H360" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11000,11 +10222,9 @@
       <c r="F361" t="s">
         <v>11</v>
       </c>
-      <c r="G361" t="s">
-        <v>12</v>
-      </c>
+      <c r="G361" t="s"/>
       <c r="H361" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11024,13 +10244,11 @@
         <v>10</v>
       </c>
       <c r="F362" t="s">
-        <v>20</v>
-      </c>
-      <c r="G362" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G362" t="s"/>
       <c r="H362" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11052,11 +10270,9 @@
       <c r="F363" t="s">
         <v>11</v>
       </c>
-      <c r="G363" t="s">
-        <v>12</v>
-      </c>
+      <c r="G363" t="s"/>
       <c r="H363" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11076,13 +10292,11 @@
         <v>10</v>
       </c>
       <c r="F364" t="s">
-        <v>20</v>
-      </c>
-      <c r="G364" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G364" t="s"/>
       <c r="H364" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11104,11 +10318,9 @@
       <c r="F365" t="s">
         <v>11</v>
       </c>
-      <c r="G365" t="s">
-        <v>12</v>
-      </c>
+      <c r="G365" t="s"/>
       <c r="H365" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11128,13 +10340,11 @@
         <v>10</v>
       </c>
       <c r="F366" t="s">
-        <v>20</v>
-      </c>
-      <c r="G366" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G366" t="s"/>
       <c r="H366" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11156,11 +10366,9 @@
       <c r="F367" t="s">
         <v>11</v>
       </c>
-      <c r="G367" t="s">
-        <v>12</v>
-      </c>
+      <c r="G367" t="s"/>
       <c r="H367" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11180,13 +10388,11 @@
         <v>10</v>
       </c>
       <c r="F368" t="s">
-        <v>20</v>
-      </c>
-      <c r="G368" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G368" t="s"/>
       <c r="H368" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11208,11 +10414,9 @@
       <c r="F369" t="s">
         <v>11</v>
       </c>
-      <c r="G369" t="s">
-        <v>12</v>
-      </c>
+      <c r="G369" t="s"/>
       <c r="H369" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11232,13 +10436,11 @@
         <v>10</v>
       </c>
       <c r="F370" t="s">
-        <v>20</v>
-      </c>
-      <c r="G370" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G370" t="s"/>
       <c r="H370" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11260,11 +10462,9 @@
       <c r="F371" t="s">
         <v>11</v>
       </c>
-      <c r="G371" t="s">
-        <v>12</v>
-      </c>
+      <c r="G371" t="s"/>
       <c r="H371" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11284,13 +10484,11 @@
         <v>10</v>
       </c>
       <c r="F372" t="s">
-        <v>20</v>
-      </c>
-      <c r="G372" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G372" t="s"/>
       <c r="H372" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11312,11 +10510,9 @@
       <c r="F373" t="s">
         <v>11</v>
       </c>
-      <c r="G373" t="s">
-        <v>12</v>
-      </c>
+      <c r="G373" t="s"/>
       <c r="H373" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11336,13 +10532,11 @@
         <v>10</v>
       </c>
       <c r="F374" t="s">
-        <v>20</v>
-      </c>
-      <c r="G374" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G374" t="s"/>
       <c r="H374" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11364,11 +10558,9 @@
       <c r="F375" t="s">
         <v>11</v>
       </c>
-      <c r="G375" t="s">
-        <v>12</v>
-      </c>
+      <c r="G375" t="s"/>
       <c r="H375" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11388,13 +10580,11 @@
         <v>10</v>
       </c>
       <c r="F376" t="s">
-        <v>20</v>
-      </c>
-      <c r="G376" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G376" t="s"/>
       <c r="H376" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11416,11 +10606,9 @@
       <c r="F377" t="s">
         <v>11</v>
       </c>
-      <c r="G377" t="s">
-        <v>12</v>
-      </c>
+      <c r="G377" t="s"/>
       <c r="H377" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11440,13 +10628,11 @@
         <v>10</v>
       </c>
       <c r="F378" t="s">
-        <v>20</v>
-      </c>
-      <c r="G378" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G378" t="s"/>
       <c r="H378" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11468,11 +10654,9 @@
       <c r="F379" t="s">
         <v>11</v>
       </c>
-      <c r="G379" t="s">
-        <v>12</v>
-      </c>
+      <c r="G379" t="s"/>
       <c r="H379" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11492,13 +10676,11 @@
         <v>10</v>
       </c>
       <c r="F380" t="s">
-        <v>20</v>
-      </c>
-      <c r="G380" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G380" t="s"/>
       <c r="H380" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -11520,11 +10702,9 @@
       <c r="F381" t="s">
         <v>11</v>
       </c>
-      <c r="G381" t="s">
-        <v>12</v>
-      </c>
+      <c r="G381" t="s"/>
       <c r="H381" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
